--- a/reports/resnet18_23_no_MMTM/prediction/6/probability_train_6.xlsx
+++ b/reports/resnet18_23_no_MMTM/prediction/6/probability_train_6.xlsx
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3952352404594421</v>
+        <v>0.729236900806427</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6047648191452026</v>
+        <v>0.2707631289958954</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -473,10 +473,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.115111380815506</v>
+        <v>0.02021735720336437</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8848886489868164</v>
+        <v>0.9797826409339905</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -489,10 +489,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7967798113822937</v>
+        <v>0.8066982626914978</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2032201886177063</v>
+        <v>0.193301722407341</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.147394597530365</v>
+        <v>0.04870058968663216</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8526054620742798</v>
+        <v>0.9512994289398193</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -521,10 +521,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1073919385671616</v>
+        <v>0.0193004347383976</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8926080465316772</v>
+        <v>0.9806995987892151</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -537,10 +537,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1722775101661682</v>
+        <v>0.1520624905824661</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8277224898338318</v>
+        <v>0.8479375839233398</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -553,10 +553,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1203518509864807</v>
+        <v>0.02197638340294361</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8796482086181641</v>
+        <v>0.9780235886573792</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -569,10 +569,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.5446196794509888</v>
+        <v>0.5589293837547302</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4553803205490112</v>
+        <v>0.441070556640625</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -585,10 +585,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.8899492621421814</v>
+        <v>0.9108815789222717</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1100507006049156</v>
+        <v>0.08911847323179245</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -601,10 +601,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1944229006767273</v>
+        <v>0.02459687367081642</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8055771589279175</v>
+        <v>0.9754031300544739</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -617,10 +617,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.7601072788238525</v>
+        <v>0.7896851301193237</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2398926615715027</v>
+        <v>0.2103148847818375</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -633,10 +633,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.178684264421463</v>
+        <v>0.01238708943128586</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8213157653808594</v>
+        <v>0.9876129627227783</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -649,10 +649,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.6377339363098145</v>
+        <v>0.7961865663528442</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3622661232948303</v>
+        <v>0.2038134783506393</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -665,10 +665,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.2827472388744354</v>
+        <v>0.10908143222332</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7172527313232422</v>
+        <v>0.8909185528755188</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
@@ -681,10 +681,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.160560667514801</v>
+        <v>0.1091097444295883</v>
       </c>
       <c r="C16" t="n">
-        <v>0.839439332485199</v>
+        <v>0.8908902406692505</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
@@ -697,10 +697,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.5361508727073669</v>
+        <v>0.09280262887477875</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4638491868972778</v>
+        <v>0.9071973562240601</v>
       </c>
       <c r="D17" t="n">
         <v>1</v>
@@ -713,10 +713,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.133782759308815</v>
+        <v>0.01586087606847286</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8662172555923462</v>
+        <v>0.984139084815979</v>
       </c>
       <c r="D18" t="n">
         <v>1</v>
@@ -729,10 +729,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.2370741665363312</v>
+        <v>0.05317723751068115</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7629257440567017</v>
+        <v>0.9468227624893188</v>
       </c>
       <c r="D19" t="n">
         <v>1</v>
@@ -745,10 +745,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.8667247295379639</v>
+        <v>0.8654909729957581</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1332752704620361</v>
+        <v>0.1345089823007584</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -761,10 +761,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.1754480451345444</v>
+        <v>0.02475282922387123</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8245519399642944</v>
+        <v>0.9752471446990967</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
@@ -777,10 +777,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.1194244176149368</v>
+        <v>0.03829930350184441</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8805755376815796</v>
+        <v>0.9617007374763489</v>
       </c>
       <c r="D22" t="n">
         <v>1</v>
@@ -793,10 +793,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.5241231918334961</v>
+        <v>0.246420681476593</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4758767783641815</v>
+        <v>0.753579318523407</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -809,10 +809,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.836589515209198</v>
+        <v>0.8635720014572144</v>
       </c>
       <c r="C24" t="n">
-        <v>0.1634104996919632</v>
+        <v>0.1364280134439468</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -825,10 +825,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.6708635091781616</v>
+        <v>0.7890434861183167</v>
       </c>
       <c r="C25" t="n">
-        <v>0.3291364908218384</v>
+        <v>0.2109565436840057</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -841,10 +841,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.1473904699087143</v>
+        <v>0.02002815715968609</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8526095747947693</v>
+        <v>0.9799718856811523</v>
       </c>
       <c r="D26" t="n">
         <v>1</v>
@@ -857,10 +857,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.3131604492664337</v>
+        <v>0.05453561246395111</v>
       </c>
       <c r="C27" t="n">
-        <v>0.6868395805358887</v>
+        <v>0.9454643726348877</v>
       </c>
       <c r="D27" t="n">
         <v>1</v>
@@ -873,10 +873,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.4516023397445679</v>
+        <v>0.4602465629577637</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5483976602554321</v>
+        <v>0.5397534370422363</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -889,10 +889,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.4237678647041321</v>
+        <v>0.1993858069181442</v>
       </c>
       <c r="C29" t="n">
-        <v>0.5762320756912231</v>
+        <v>0.8006142377853394</v>
       </c>
       <c r="D29" t="n">
         <v>1</v>
@@ -905,10 +905,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.6410782933235168</v>
+        <v>0.6173086166381836</v>
       </c>
       <c r="C30" t="n">
-        <v>0.3589217066764832</v>
+        <v>0.3826912939548492</v>
       </c>
       <c r="D30" t="n">
         <v>1</v>
@@ -921,10 +921,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.6168001294136047</v>
+        <v>0.7688310146331787</v>
       </c>
       <c r="C31" t="n">
-        <v>0.3831998705863953</v>
+        <v>0.2311689555644989</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -937,10 +937,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.5973614454269409</v>
+        <v>0.1116878017783165</v>
       </c>
       <c r="C32" t="n">
-        <v>0.4026385545730591</v>
+        <v>0.8883121609687805</v>
       </c>
       <c r="D32" t="n">
         <v>1</v>
@@ -953,10 +953,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.1416318565607071</v>
+        <v>0.01284041162580252</v>
       </c>
       <c r="C33" t="n">
-        <v>0.8583681583404541</v>
+        <v>0.9871596097946167</v>
       </c>
       <c r="D33" t="n">
         <v>1</v>
@@ -969,10 +969,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.4679257869720459</v>
+        <v>0.05566649883985519</v>
       </c>
       <c r="C34" t="n">
-        <v>0.5320742130279541</v>
+        <v>0.944333553314209</v>
       </c>
       <c r="D34" t="n">
         <v>1</v>
@@ -985,10 +985,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.2623822093009949</v>
+        <v>0.2456026524305344</v>
       </c>
       <c r="C35" t="n">
-        <v>0.7376177906990051</v>
+        <v>0.7543973922729492</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -1001,10 +1001,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.1658554524183273</v>
+        <v>0.02128642611205578</v>
       </c>
       <c r="C36" t="n">
-        <v>0.8341445922851562</v>
+        <v>0.9787135720252991</v>
       </c>
       <c r="D36" t="n">
         <v>1</v>
@@ -1017,10 +1017,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.1453343778848648</v>
+        <v>0.03108329325914383</v>
       </c>
       <c r="C37" t="n">
-        <v>0.8546656370162964</v>
+        <v>0.968916654586792</v>
       </c>
       <c r="D37" t="n">
         <v>1</v>
@@ -1033,10 +1033,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.1751059144735336</v>
+        <v>0.09708282351493835</v>
       </c>
       <c r="C38" t="n">
-        <v>0.8248940706253052</v>
+        <v>0.902917206287384</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -1049,10 +1049,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.9172779321670532</v>
+        <v>0.5713424682617188</v>
       </c>
       <c r="C39" t="n">
-        <v>0.08272205293178558</v>
+        <v>0.4286575317382812</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.6284353733062744</v>
+        <v>0.2654765248298645</v>
       </c>
       <c r="C40" t="n">
-        <v>0.371564656496048</v>
+        <v>0.7345234155654907</v>
       </c>
       <c r="D40" t="n">
         <v>1</v>
@@ -1081,10 +1081,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.2514812350273132</v>
+        <v>0.03026309795677662</v>
       </c>
       <c r="C41" t="n">
-        <v>0.7485187649726868</v>
+        <v>0.9697369337081909</v>
       </c>
       <c r="D41" t="n">
         <v>1</v>
@@ -1097,10 +1097,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.5066290497779846</v>
+        <v>0.25223708152771</v>
       </c>
       <c r="C42" t="n">
-        <v>0.493370920419693</v>
+        <v>0.7477628588676453</v>
       </c>
       <c r="D42" t="n">
         <v>1</v>
@@ -1113,10 +1113,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.1920344531536102</v>
+        <v>0.02639562077820301</v>
       </c>
       <c r="C43" t="n">
-        <v>0.8079655170440674</v>
+        <v>0.9736044406890869</v>
       </c>
       <c r="D43" t="n">
         <v>1</v>
@@ -1129,10 +1129,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.2968336939811707</v>
+        <v>0.1463162302970886</v>
       </c>
       <c r="C44" t="n">
-        <v>0.7031663060188293</v>
+        <v>0.8536837100982666</v>
       </c>
       <c r="D44" t="n">
         <v>1</v>
@@ -1145,10 +1145,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.3361309766769409</v>
+        <v>0.3782234489917755</v>
       </c>
       <c r="C45" t="n">
-        <v>0.6638690233230591</v>
+        <v>0.6217765212059021</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -1161,10 +1161,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.9493831396102905</v>
+        <v>0.9582011699676514</v>
       </c>
       <c r="C46" t="n">
-        <v>0.05061686784029007</v>
+        <v>0.0417989045381546</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -1177,10 +1177,10 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.5119542479515076</v>
+        <v>0.08066783100366592</v>
       </c>
       <c r="C47" t="n">
-        <v>0.4880457520484924</v>
+        <v>0.9193321466445923</v>
       </c>
       <c r="D47" t="n">
         <v>1</v>
@@ -1193,10 +1193,10 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.2500356137752533</v>
+        <v>0.04722125083208084</v>
       </c>
       <c r="C48" t="n">
-        <v>0.7499643564224243</v>
+        <v>0.952778697013855</v>
       </c>
       <c r="D48" t="n">
         <v>1</v>
@@ -1209,10 +1209,10 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.1492083072662354</v>
+        <v>0.01938172802329063</v>
       </c>
       <c r="C49" t="n">
-        <v>0.8507916927337646</v>
+        <v>0.9806182384490967</v>
       </c>
       <c r="D49" t="n">
         <v>1</v>
@@ -1225,10 +1225,10 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.2743167877197266</v>
+        <v>0.01314029842615128</v>
       </c>
       <c r="C50" t="n">
-        <v>0.7256832122802734</v>
+        <v>0.9868597388267517</v>
       </c>
       <c r="D50" t="n">
         <v>1</v>
@@ -1241,10 +1241,10 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.3201976418495178</v>
+        <v>0.06283964216709137</v>
       </c>
       <c r="C51" t="n">
-        <v>0.6798022985458374</v>
+        <v>0.9371603727340698</v>
       </c>
       <c r="D51" t="n">
         <v>1</v>
@@ -1257,10 +1257,10 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.3974658846855164</v>
+        <v>0.2461795210838318</v>
       </c>
       <c r="C52" t="n">
-        <v>0.6025341153144836</v>
+        <v>0.7538204789161682</v>
       </c>
       <c r="D52" t="n">
         <v>1</v>
@@ -1273,10 +1273,10 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.4439497888088226</v>
+        <v>0.2792064249515533</v>
       </c>
       <c r="C53" t="n">
-        <v>0.556050181388855</v>
+        <v>0.720793604850769</v>
       </c>
       <c r="D53" t="n">
         <v>1</v>
@@ -1289,10 +1289,10 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.3657316565513611</v>
+        <v>0.04628744721412659</v>
       </c>
       <c r="C54" t="n">
-        <v>0.6342684030532837</v>
+        <v>0.9537125825881958</v>
       </c>
       <c r="D54" t="n">
         <v>1</v>
@@ -1305,10 +1305,10 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.7946758270263672</v>
+        <v>0.7343752384185791</v>
       </c>
       <c r="C55" t="n">
-        <v>0.2053242176771164</v>
+        <v>0.2656248211860657</v>
       </c>
       <c r="D55" t="n">
         <v>0</v>
@@ -1321,10 +1321,10 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.1417121291160583</v>
+        <v>0.01697165705263615</v>
       </c>
       <c r="C56" t="n">
-        <v>0.8582878112792969</v>
+        <v>0.9830282926559448</v>
       </c>
       <c r="D56" t="n">
         <v>1</v>
@@ -1337,10 +1337,10 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.1215066686272621</v>
+        <v>0.1106932088732719</v>
       </c>
       <c r="C57" t="n">
-        <v>0.8784933090209961</v>
+        <v>0.8893067836761475</v>
       </c>
       <c r="D57" t="n">
         <v>1</v>
@@ -1353,10 +1353,10 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.2952131032943726</v>
+        <v>0.125153511762619</v>
       </c>
       <c r="C58" t="n">
-        <v>0.7047868967056274</v>
+        <v>0.8748464584350586</v>
       </c>
       <c r="D58" t="n">
         <v>0</v>
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.1322055608034134</v>
+        <v>0.02343377284705639</v>
       </c>
       <c r="C59" t="n">
-        <v>0.8677945137023926</v>
+        <v>0.9765661954879761</v>
       </c>
       <c r="D59" t="n">
         <v>1</v>
@@ -1385,10 +1385,10 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.6359105706214905</v>
+        <v>0.4799355864524841</v>
       </c>
       <c r="C60" t="n">
-        <v>0.3640894293785095</v>
+        <v>0.5200644135475159</v>
       </c>
       <c r="D60" t="n">
         <v>1</v>
@@ -1401,10 +1401,10 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.3091133236885071</v>
+        <v>0.1055883169174194</v>
       </c>
       <c r="C61" t="n">
-        <v>0.6908866763114929</v>
+        <v>0.8944116830825806</v>
       </c>
       <c r="D61" t="n">
         <v>0</v>
@@ -1417,10 +1417,10 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.2124975919723511</v>
+        <v>0.03277536481618881</v>
       </c>
       <c r="C62" t="n">
-        <v>0.7875024080276489</v>
+        <v>0.967224657535553</v>
       </c>
       <c r="D62" t="n">
         <v>1</v>
@@ -1433,10 +1433,10 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.30143141746521</v>
+        <v>0.08709702640771866</v>
       </c>
       <c r="C63" t="n">
-        <v>0.69856858253479</v>
+        <v>0.9129029512405396</v>
       </c>
       <c r="D63" t="n">
         <v>1</v>
@@ -1449,10 +1449,10 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.1404021680355072</v>
+        <v>0.02813500352203846</v>
       </c>
       <c r="C64" t="n">
-        <v>0.8595978021621704</v>
+        <v>0.9718649387359619</v>
       </c>
       <c r="D64" t="n">
         <v>1</v>
@@ -1465,10 +1465,10 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.1223801821470261</v>
+        <v>0.05120925605297089</v>
       </c>
       <c r="C65" t="n">
-        <v>0.8776198625564575</v>
+        <v>0.9487907290458679</v>
       </c>
       <c r="D65" t="n">
         <v>0</v>
@@ -1481,10 +1481,10 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.1347610652446747</v>
+        <v>0.01880632154643536</v>
       </c>
       <c r="C66" t="n">
-        <v>0.8652389049530029</v>
+        <v>0.9811936616897583</v>
       </c>
       <c r="D66" t="n">
         <v>1</v>
@@ -1497,10 +1497,10 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.1818695962429047</v>
+        <v>0.02041291445493698</v>
       </c>
       <c r="C67" t="n">
-        <v>0.8181303739547729</v>
+        <v>0.9795870780944824</v>
       </c>
       <c r="D67" t="n">
         <v>1</v>
@@ -1513,10 +1513,10 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.2585341930389404</v>
+        <v>0.06484375894069672</v>
       </c>
       <c r="C68" t="n">
-        <v>0.7414658069610596</v>
+        <v>0.9351562261581421</v>
       </c>
       <c r="D68" t="n">
         <v>0</v>
@@ -1529,10 +1529,10 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.2882590591907501</v>
+        <v>0.03737644106149673</v>
       </c>
       <c r="C69" t="n">
-        <v>0.7117409706115723</v>
+        <v>0.9626235365867615</v>
       </c>
       <c r="D69" t="n">
         <v>1</v>
@@ -1545,10 +1545,10 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.1791659742593765</v>
+        <v>0.0209432877600193</v>
       </c>
       <c r="C70" t="n">
-        <v>0.8208340406417847</v>
+        <v>0.979056715965271</v>
       </c>
       <c r="D70" t="n">
         <v>1</v>
@@ -1561,10 +1561,10 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.1582739055156708</v>
+        <v>0.02882616594433784</v>
       </c>
       <c r="C71" t="n">
-        <v>0.8417260646820068</v>
+        <v>0.9711738228797913</v>
       </c>
       <c r="D71" t="n">
         <v>1</v>
@@ -1577,10 +1577,10 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.7484880089759827</v>
+        <v>0.8455585837364197</v>
       </c>
       <c r="C72" t="n">
-        <v>0.2515119612216949</v>
+        <v>0.1544414162635803</v>
       </c>
       <c r="D72" t="n">
         <v>0</v>
@@ -1593,10 +1593,10 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.1977918744087219</v>
+        <v>0.01798396930098534</v>
       </c>
       <c r="C73" t="n">
-        <v>0.8022081851959229</v>
+        <v>0.9820160865783691</v>
       </c>
       <c r="D73" t="n">
         <v>1</v>
@@ -1609,10 +1609,10 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.189556747674942</v>
+        <v>0.01618719287216663</v>
       </c>
       <c r="C74" t="n">
-        <v>0.8104432821273804</v>
+        <v>0.9838128089904785</v>
       </c>
       <c r="D74" t="n">
         <v>1</v>
@@ -1625,10 +1625,10 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.3034551739692688</v>
+        <v>0.04577027261257172</v>
       </c>
       <c r="C75" t="n">
-        <v>0.696544885635376</v>
+        <v>0.9542297124862671</v>
       </c>
       <c r="D75" t="n">
         <v>1</v>
@@ -1641,10 +1641,10 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.5743120312690735</v>
+        <v>0.7658698558807373</v>
       </c>
       <c r="C76" t="n">
-        <v>0.4256879687309265</v>
+        <v>0.2341301739215851</v>
       </c>
       <c r="D76" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.2231949269771576</v>
+        <v>0.03130591660737991</v>
       </c>
       <c r="C77" t="n">
-        <v>0.77680504322052</v>
+        <v>0.9686940908432007</v>
       </c>
       <c r="D77" t="n">
         <v>1</v>
@@ -1673,10 +1673,10 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.2652615010738373</v>
+        <v>0.05543224513530731</v>
       </c>
       <c r="C78" t="n">
-        <v>0.7347385287284851</v>
+        <v>0.9445677995681763</v>
       </c>
       <c r="D78" t="n">
         <v>0</v>
@@ -1689,10 +1689,10 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.8250458240509033</v>
+        <v>0.9385066032409668</v>
       </c>
       <c r="C79" t="n">
-        <v>0.1749542355537415</v>
+        <v>0.06149342283606529</v>
       </c>
       <c r="D79" t="n">
         <v>0</v>
@@ -1705,10 +1705,10 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.2627307772636414</v>
+        <v>0.5079191327095032</v>
       </c>
       <c r="C80" t="n">
-        <v>0.7372691631317139</v>
+        <v>0.4920808672904968</v>
       </c>
       <c r="D80" t="n">
         <v>0</v>
@@ -1721,10 +1721,10 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.114514946937561</v>
+        <v>0.05568385124206543</v>
       </c>
       <c r="C81" t="n">
-        <v>0.885485053062439</v>
+        <v>0.9443161487579346</v>
       </c>
       <c r="D81" t="n">
         <v>1</v>
@@ -1737,10 +1737,10 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.2110627293586731</v>
+        <v>0.06573773175477982</v>
       </c>
       <c r="C82" t="n">
-        <v>0.7889372110366821</v>
+        <v>0.9342622756958008</v>
       </c>
       <c r="D82" t="n">
         <v>0</v>
@@ -1753,10 +1753,10 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.205543041229248</v>
+        <v>0.08088557422161102</v>
       </c>
       <c r="C83" t="n">
-        <v>0.794456958770752</v>
+        <v>0.9191144108772278</v>
       </c>
       <c r="D83" t="n">
         <v>1</v>
@@ -1769,10 +1769,10 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.7337185144424438</v>
+        <v>0.8826361298561096</v>
       </c>
       <c r="C84" t="n">
-        <v>0.2662814855575562</v>
+        <v>0.1173638701438904</v>
       </c>
       <c r="D84" t="n">
         <v>0</v>
@@ -1785,10 +1785,10 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.2491061985492706</v>
+        <v>0.1854520440101624</v>
       </c>
       <c r="C85" t="n">
-        <v>0.750893771648407</v>
+        <v>0.8145478963851929</v>
       </c>
       <c r="D85" t="n">
         <v>1</v>
@@ -1801,10 +1801,10 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.6087734699249268</v>
+        <v>0.6534558534622192</v>
       </c>
       <c r="C86" t="n">
-        <v>0.3912265598773956</v>
+        <v>0.3465441465377808</v>
       </c>
       <c r="D86" t="n">
         <v>0</v>
@@ -1817,10 +1817,10 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.3932390213012695</v>
+        <v>0.1715975552797318</v>
       </c>
       <c r="C87" t="n">
-        <v>0.6067609786987305</v>
+        <v>0.8284024596214294</v>
       </c>
       <c r="D87" t="n">
         <v>1</v>
@@ -1833,10 +1833,10 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.1822783648967743</v>
+        <v>0.03028846904635429</v>
       </c>
       <c r="C88" t="n">
-        <v>0.8177216053009033</v>
+        <v>0.9697115421295166</v>
       </c>
       <c r="D88" t="n">
         <v>1</v>
@@ -1849,10 +1849,10 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.2218079268932343</v>
+        <v>0.07593279331922531</v>
       </c>
       <c r="C89" t="n">
-        <v>0.7781920433044434</v>
+        <v>0.9240671992301941</v>
       </c>
       <c r="D89" t="n">
         <v>0</v>
@@ -1865,10 +1865,10 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.1632625609636307</v>
+        <v>0.03692442178726196</v>
       </c>
       <c r="C90" t="n">
-        <v>0.8367373943328857</v>
+        <v>0.9630756378173828</v>
       </c>
       <c r="D90" t="n">
         <v>1</v>
@@ -1881,10 +1881,10 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.1215140447020531</v>
+        <v>0.009182379581034184</v>
       </c>
       <c r="C91" t="n">
-        <v>0.8784859180450439</v>
+        <v>0.9908176064491272</v>
       </c>
       <c r="D91" t="n">
         <v>1</v>
@@ -1897,10 +1897,10 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.319040983915329</v>
+        <v>0.2717712223529816</v>
       </c>
       <c r="C92" t="n">
-        <v>0.6809589862823486</v>
+        <v>0.728228747844696</v>
       </c>
       <c r="D92" t="n">
         <v>1</v>
@@ -1913,10 +1913,10 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.8348591923713684</v>
+        <v>0.7117146253585815</v>
       </c>
       <c r="C93" t="n">
-        <v>0.1651407778263092</v>
+        <v>0.2882853746414185</v>
       </c>
       <c r="D93" t="n">
         <v>0</v>
@@ -1929,10 +1929,10 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.1751525104045868</v>
+        <v>0.02033152431249619</v>
       </c>
       <c r="C94" t="n">
-        <v>0.8248474597930908</v>
+        <v>0.9796684980392456</v>
       </c>
       <c r="D94" t="n">
         <v>1</v>
@@ -1945,10 +1945,10 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.1584667265415192</v>
+        <v>0.03336549550294876</v>
       </c>
       <c r="C95" t="n">
-        <v>0.8415333032608032</v>
+        <v>0.9666345119476318</v>
       </c>
       <c r="D95" t="n">
         <v>1</v>
@@ -1961,10 +1961,10 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.2025417983531952</v>
+        <v>0.02978589572012424</v>
       </c>
       <c r="C96" t="n">
-        <v>0.7974581718444824</v>
+        <v>0.9702141284942627</v>
       </c>
       <c r="D96" t="n">
         <v>1</v>
@@ -1977,10 +1977,10 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.3142815828323364</v>
+        <v>0.03327924758195877</v>
       </c>
       <c r="C97" t="n">
-        <v>0.6857184171676636</v>
+        <v>0.9667207598686218</v>
       </c>
       <c r="D97" t="n">
         <v>1</v>
@@ -1993,10 +1993,10 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.1180502474308014</v>
+        <v>0.05159502476453781</v>
       </c>
       <c r="C98" t="n">
-        <v>0.881949782371521</v>
+        <v>0.9484050273895264</v>
       </c>
       <c r="D98" t="n">
         <v>1</v>
@@ -2009,10 +2009,10 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.3471242487430573</v>
+        <v>0.1530291140079498</v>
       </c>
       <c r="C99" t="n">
-        <v>0.6528757810592651</v>
+        <v>0.8469709157943726</v>
       </c>
       <c r="D99" t="n">
         <v>1</v>
@@ -2025,10 +2025,10 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.1655057072639465</v>
+        <v>0.01801974326372147</v>
       </c>
       <c r="C100" t="n">
-        <v>0.8344942927360535</v>
+        <v>0.9819802641868591</v>
       </c>
       <c r="D100" t="n">
         <v>1</v>
@@ -2041,10 +2041,10 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.3185760974884033</v>
+        <v>0.06354200839996338</v>
       </c>
       <c r="C101" t="n">
-        <v>0.6814239025115967</v>
+        <v>0.9364579319953918</v>
       </c>
       <c r="D101" t="n">
         <v>1</v>
@@ -2057,10 +2057,10 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.4952413439750671</v>
+        <v>0.5092538595199585</v>
       </c>
       <c r="C102" t="n">
-        <v>0.5047585964202881</v>
+        <v>0.4907462000846863</v>
       </c>
       <c r="D102" t="n">
         <v>1</v>
@@ -2073,10 +2073,10 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.1481313854455948</v>
+        <v>0.01271736156195402</v>
       </c>
       <c r="C103" t="n">
-        <v>0.8518686294555664</v>
+        <v>0.9872826933860779</v>
       </c>
       <c r="D103" t="n">
         <v>1</v>
@@ -2089,10 +2089,10 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.7772891521453857</v>
+        <v>0.8163827657699585</v>
       </c>
       <c r="C104" t="n">
-        <v>0.2227108478546143</v>
+        <v>0.1836172193288803</v>
       </c>
       <c r="D104" t="n">
         <v>0</v>
@@ -2105,10 +2105,10 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.3460492491722107</v>
+        <v>0.04582756012678146</v>
       </c>
       <c r="C105" t="n">
-        <v>0.6539506912231445</v>
+        <v>0.9541724324226379</v>
       </c>
       <c r="D105" t="n">
         <v>1</v>
@@ -2121,10 +2121,10 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.6117882132530212</v>
+        <v>0.3842059671878815</v>
       </c>
       <c r="C106" t="n">
-        <v>0.3882117867469788</v>
+        <v>0.6157940626144409</v>
       </c>
       <c r="D106" t="n">
         <v>0</v>
@@ -2137,10 +2137,10 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.464483767747879</v>
+        <v>0.1392075717449188</v>
       </c>
       <c r="C107" t="n">
-        <v>0.5355162620544434</v>
+        <v>0.8607923984527588</v>
       </c>
       <c r="D107" t="n">
         <v>0</v>
@@ -2153,10 +2153,10 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.1302661597728729</v>
+        <v>0.05383804813027382</v>
       </c>
       <c r="C108" t="n">
-        <v>0.8697338104248047</v>
+        <v>0.9461619853973389</v>
       </c>
       <c r="D108" t="n">
         <v>1</v>
@@ -2169,10 +2169,10 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.664915919303894</v>
+        <v>0.4694896042346954</v>
       </c>
       <c r="C109" t="n">
-        <v>0.335084080696106</v>
+        <v>0.530510425567627</v>
       </c>
       <c r="D109" t="n">
         <v>0</v>
@@ -2185,10 +2185,10 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.1095181182026863</v>
+        <v>0.0217338427901268</v>
       </c>
       <c r="C110" t="n">
-        <v>0.8904818296432495</v>
+        <v>0.978266179561615</v>
       </c>
       <c r="D110" t="n">
         <v>1</v>
@@ -2201,10 +2201,10 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.2276075184345245</v>
+        <v>0.04295774549245834</v>
       </c>
       <c r="C111" t="n">
-        <v>0.7723924517631531</v>
+        <v>0.9570423364639282</v>
       </c>
       <c r="D111" t="n">
         <v>1</v>
@@ -2217,10 +2217,10 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0.4346977472305298</v>
+        <v>0.2901133894920349</v>
       </c>
       <c r="C112" t="n">
-        <v>0.5653022527694702</v>
+        <v>0.7098865509033203</v>
       </c>
       <c r="D112" t="n">
         <v>0</v>
@@ -2233,10 +2233,10 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0.4354718327522278</v>
+        <v>0.4632362723350525</v>
       </c>
       <c r="C113" t="n">
-        <v>0.5645281672477722</v>
+        <v>0.5367637276649475</v>
       </c>
       <c r="D113" t="n">
         <v>0</v>
@@ -2249,10 +2249,10 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.7090111970901489</v>
+        <v>0.8789041042327881</v>
       </c>
       <c r="C114" t="n">
-        <v>0.2909888029098511</v>
+        <v>0.1210959181189537</v>
       </c>
       <c r="D114" t="n">
         <v>0</v>
@@ -2265,10 +2265,10 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0.5816301107406616</v>
+        <v>0.4646683633327484</v>
       </c>
       <c r="C115" t="n">
-        <v>0.4183698892593384</v>
+        <v>0.5353316068649292</v>
       </c>
       <c r="D115" t="n">
         <v>1</v>
@@ -2281,10 +2281,10 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0.3263857066631317</v>
+        <v>0.0432792529463768</v>
       </c>
       <c r="C116" t="n">
-        <v>0.6736142635345459</v>
+        <v>0.9567207098007202</v>
       </c>
       <c r="D116" t="n">
         <v>0</v>
@@ -2297,10 +2297,10 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0.1738524287939072</v>
+        <v>0.03702269494533539</v>
       </c>
       <c r="C117" t="n">
-        <v>0.8261475563049316</v>
+        <v>0.9629772901535034</v>
       </c>
       <c r="D117" t="n">
         <v>0</v>
@@ -2313,10 +2313,10 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0.1088337898254395</v>
+        <v>0.01955533772706985</v>
       </c>
       <c r="C118" t="n">
-        <v>0.8911662101745605</v>
+        <v>0.980444610118866</v>
       </c>
       <c r="D118" t="n">
         <v>1</v>
@@ -2329,10 +2329,10 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0.1905142068862915</v>
+        <v>0.02153695002198219</v>
       </c>
       <c r="C119" t="n">
-        <v>0.8094857335090637</v>
+        <v>0.9784630537033081</v>
       </c>
       <c r="D119" t="n">
         <v>1</v>
@@ -2345,10 +2345,10 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0.2191130816936493</v>
+        <v>0.02964174002408981</v>
       </c>
       <c r="C120" t="n">
-        <v>0.7808868885040283</v>
+        <v>0.9703582525253296</v>
       </c>
       <c r="D120" t="n">
         <v>1</v>
@@ -2361,10 +2361,10 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0.6400994062423706</v>
+        <v>0.787482738494873</v>
       </c>
       <c r="C121" t="n">
-        <v>0.3599005937576294</v>
+        <v>0.212517261505127</v>
       </c>
       <c r="D121" t="n">
         <v>0</v>
@@ -2377,10 +2377,10 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0.5476040840148926</v>
+        <v>0.219310849905014</v>
       </c>
       <c r="C122" t="n">
-        <v>0.4523959457874298</v>
+        <v>0.7806891202926636</v>
       </c>
       <c r="D122" t="n">
         <v>0</v>
@@ -2393,10 +2393,10 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0.1799917221069336</v>
+        <v>0.0193208958953619</v>
       </c>
       <c r="C123" t="n">
-        <v>0.8200082778930664</v>
+        <v>0.9806791543960571</v>
       </c>
       <c r="D123" t="n">
         <v>1</v>
@@ -2409,10 +2409,10 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0.2175334393978119</v>
+        <v>0.02781028300523758</v>
       </c>
       <c r="C124" t="n">
-        <v>0.7824665904045105</v>
+        <v>0.9721896648406982</v>
       </c>
       <c r="D124" t="n">
         <v>1</v>
@@ -2425,10 +2425,10 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0.6049177050590515</v>
+        <v>0.5052932500839233</v>
       </c>
       <c r="C125" t="n">
-        <v>0.3950822651386261</v>
+        <v>0.4947067499160767</v>
       </c>
       <c r="D125" t="n">
         <v>0</v>
@@ -2441,10 +2441,10 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0.1911652684211731</v>
+        <v>0.02237778529524803</v>
       </c>
       <c r="C126" t="n">
-        <v>0.8088347315788269</v>
+        <v>0.9776222705841064</v>
       </c>
       <c r="D126" t="n">
         <v>1</v>
@@ -2457,10 +2457,10 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0.1848619282245636</v>
+        <v>0.03035995364189148</v>
       </c>
       <c r="C127" t="n">
-        <v>0.8151381015777588</v>
+        <v>0.9696400761604309</v>
       </c>
       <c r="D127" t="n">
         <v>1</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0.8796573877334595</v>
+        <v>0.6268821954727173</v>
       </c>
       <c r="C128" t="n">
-        <v>0.1203426644206047</v>
+        <v>0.3731178045272827</v>
       </c>
       <c r="D128" t="n">
         <v>0</v>
@@ -2489,10 +2489,10 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>0.1473494470119476</v>
+        <v>0.0330449566245079</v>
       </c>
       <c r="C129" t="n">
-        <v>0.8526506423950195</v>
+        <v>0.9669550657272339</v>
       </c>
       <c r="D129" t="n">
         <v>1</v>
@@ -2505,10 +2505,10 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0.1442436724901199</v>
+        <v>0.02354412525892258</v>
       </c>
       <c r="C130" t="n">
-        <v>0.8557562828063965</v>
+        <v>0.9764558076858521</v>
       </c>
       <c r="D130" t="n">
         <v>1</v>
@@ -2521,10 +2521,10 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>0.1916601657867432</v>
+        <v>0.2060064524412155</v>
       </c>
       <c r="C131" t="n">
-        <v>0.8083398342132568</v>
+        <v>0.7939935326576233</v>
       </c>
       <c r="D131" t="n">
         <v>1</v>
@@ -2537,10 +2537,10 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0.3081891238689423</v>
+        <v>0.2344238758087158</v>
       </c>
       <c r="C132" t="n">
-        <v>0.6918108463287354</v>
+        <v>0.7655761241912842</v>
       </c>
       <c r="D132" t="n">
         <v>0</v>
@@ -2553,10 +2553,10 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0.4773489832878113</v>
+        <v>0.08754374086856842</v>
       </c>
       <c r="C133" t="n">
-        <v>0.5226510167121887</v>
+        <v>0.9124562740325928</v>
       </c>
       <c r="D133" t="n">
         <v>1</v>
@@ -2569,10 +2569,10 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0.3104340136051178</v>
+        <v>0.095406174659729</v>
       </c>
       <c r="C134" t="n">
-        <v>0.6895659565925598</v>
+        <v>0.904593825340271</v>
       </c>
       <c r="D134" t="n">
         <v>1</v>
@@ -2585,10 +2585,10 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0.726216733455658</v>
+        <v>0.5999410152435303</v>
       </c>
       <c r="C135" t="n">
-        <v>0.2737832367420197</v>
+        <v>0.4000589847564697</v>
       </c>
       <c r="D135" t="n">
         <v>0</v>
@@ -2601,10 +2601,10 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0.1186033636331558</v>
+        <v>0.02720157988369465</v>
       </c>
       <c r="C136" t="n">
-        <v>0.8813966512680054</v>
+        <v>0.9727984070777893</v>
       </c>
       <c r="D136" t="n">
         <v>1</v>
@@ -2617,10 +2617,10 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>0.3516221046447754</v>
+        <v>0.0431511402130127</v>
       </c>
       <c r="C137" t="n">
-        <v>0.6483778953552246</v>
+        <v>0.9568488597869873</v>
       </c>
       <c r="D137" t="n">
         <v>1</v>
@@ -2633,10 +2633,10 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0.1189935505390167</v>
+        <v>0.01155969314277172</v>
       </c>
       <c r="C138" t="n">
-        <v>0.8810064196586609</v>
+        <v>0.9884402751922607</v>
       </c>
       <c r="D138" t="n">
         <v>1</v>
@@ -2649,10 +2649,10 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>0.2675279080867767</v>
+        <v>0.07052826881408691</v>
       </c>
       <c r="C139" t="n">
-        <v>0.7324721217155457</v>
+        <v>0.9294717311859131</v>
       </c>
       <c r="D139" t="n">
         <v>1</v>
@@ -2665,10 +2665,10 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>0.2219506502151489</v>
+        <v>0.03226586431264877</v>
       </c>
       <c r="C140" t="n">
-        <v>0.7780493497848511</v>
+        <v>0.9677340984344482</v>
       </c>
       <c r="D140" t="n">
         <v>1</v>
@@ -2681,10 +2681,10 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>0.1941045969724655</v>
+        <v>0.01321816444396973</v>
       </c>
       <c r="C141" t="n">
-        <v>0.8058953881263733</v>
+        <v>0.9867818355560303</v>
       </c>
       <c r="D141" t="n">
         <v>1</v>
@@ -2697,10 +2697,10 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>0.08499405533075333</v>
+        <v>0.009446951560676098</v>
       </c>
       <c r="C142" t="n">
-        <v>0.9150059223175049</v>
+        <v>0.9905530214309692</v>
       </c>
       <c r="D142" t="n">
         <v>1</v>
@@ -2713,10 +2713,10 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>0.2806676924228668</v>
+        <v>0.320340096950531</v>
       </c>
       <c r="C143" t="n">
-        <v>0.7193322777748108</v>
+        <v>0.679659903049469</v>
       </c>
       <c r="D143" t="n">
         <v>1</v>
@@ -2729,10 +2729,10 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>0.2605690658092499</v>
+        <v>0.05188987404108047</v>
       </c>
       <c r="C144" t="n">
-        <v>0.7394309639930725</v>
+        <v>0.9481101036071777</v>
       </c>
       <c r="D144" t="n">
         <v>1</v>
@@ -2745,10 +2745,10 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>0.3511976897716522</v>
+        <v>0.08051067590713501</v>
       </c>
       <c r="C145" t="n">
-        <v>0.6488022804260254</v>
+        <v>0.919489324092865</v>
       </c>
       <c r="D145" t="n">
         <v>1</v>
@@ -2761,10 +2761,10 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>0.1266274750232697</v>
+        <v>0.01977178454399109</v>
       </c>
       <c r="C146" t="n">
-        <v>0.873372495174408</v>
+        <v>0.9802281856536865</v>
       </c>
       <c r="D146" t="n">
         <v>1</v>
@@ -2777,10 +2777,10 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>0.564544677734375</v>
+        <v>0.7622188329696655</v>
       </c>
       <c r="C147" t="n">
-        <v>0.4354552924633026</v>
+        <v>0.2377811372280121</v>
       </c>
       <c r="D147" t="n">
         <v>0</v>
@@ -2793,10 +2793,10 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>0.5837874412536621</v>
+        <v>0.418633759021759</v>
       </c>
       <c r="C148" t="n">
-        <v>0.4162125587463379</v>
+        <v>0.5813661813735962</v>
       </c>
       <c r="D148" t="n">
         <v>0</v>
@@ -2809,10 +2809,10 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>0.5183382034301758</v>
+        <v>0.2072973102331161</v>
       </c>
       <c r="C149" t="n">
-        <v>0.4816617965698242</v>
+        <v>0.7927027344703674</v>
       </c>
       <c r="D149" t="n">
         <v>0</v>
@@ -2825,10 +2825,10 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>0.2323184609413147</v>
+        <v>0.01468247547745705</v>
       </c>
       <c r="C150" t="n">
-        <v>0.7676815390586853</v>
+        <v>0.9853174686431885</v>
       </c>
       <c r="D150" t="n">
         <v>1</v>
@@ -2841,10 +2841,10 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>0.6304943561553955</v>
+        <v>0.6470060348510742</v>
       </c>
       <c r="C151" t="n">
-        <v>0.3695056438446045</v>
+        <v>0.3529939949512482</v>
       </c>
       <c r="D151" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>0.3082410991191864</v>
+        <v>0.1233915388584137</v>
       </c>
       <c r="C152" t="n">
-        <v>0.6917588710784912</v>
+        <v>0.8766084909439087</v>
       </c>
       <c r="D152" t="n">
         <v>1</v>
@@ -2873,10 +2873,10 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>0.3762043714523315</v>
+        <v>0.09482475370168686</v>
       </c>
       <c r="C153" t="n">
-        <v>0.6237956285476685</v>
+        <v>0.9051752090454102</v>
       </c>
       <c r="D153" t="n">
         <v>0</v>
@@ -2889,10 +2889,10 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>0.1598659157752991</v>
+        <v>0.0214327946305275</v>
       </c>
       <c r="C154" t="n">
-        <v>0.8401340842247009</v>
+        <v>0.9785672426223755</v>
       </c>
       <c r="D154" t="n">
         <v>1</v>
@@ -2905,10 +2905,10 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>0.2166600227355957</v>
+        <v>0.03074290603399277</v>
       </c>
       <c r="C155" t="n">
-        <v>0.7833399772644043</v>
+        <v>0.969257116317749</v>
       </c>
       <c r="D155" t="n">
         <v>1</v>
@@ -2921,10 +2921,10 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>0.2439671456813812</v>
+        <v>0.08504064381122589</v>
       </c>
       <c r="C156" t="n">
-        <v>0.7560328841209412</v>
+        <v>0.9149593114852905</v>
       </c>
       <c r="D156" t="n">
         <v>1</v>
@@ -2937,10 +2937,10 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>0.2769597172737122</v>
+        <v>0.2256932407617569</v>
       </c>
       <c r="C157" t="n">
-        <v>0.7230403423309326</v>
+        <v>0.7743067741394043</v>
       </c>
       <c r="D157" t="n">
         <v>0</v>
@@ -2953,10 +2953,10 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>0.1274528801441193</v>
+        <v>0.03782592341303825</v>
       </c>
       <c r="C158" t="n">
-        <v>0.8725471496582031</v>
+        <v>0.962174117565155</v>
       </c>
       <c r="D158" t="n">
         <v>1</v>
@@ -2969,10 +2969,10 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>0.1517482548952103</v>
+        <v>0.02312158793210983</v>
       </c>
       <c r="C159" t="n">
-        <v>0.8482517600059509</v>
+        <v>0.9768784046173096</v>
       </c>
       <c r="D159" t="n">
         <v>1</v>
@@ -2985,10 +2985,10 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>0.2476867437362671</v>
+        <v>0.08084291964769363</v>
       </c>
       <c r="C160" t="n">
-        <v>0.7523131966590881</v>
+        <v>0.919157087802887</v>
       </c>
       <c r="D160" t="n">
         <v>1</v>
@@ -3001,10 +3001,10 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>0.1859554350376129</v>
+        <v>0.1540407687425613</v>
       </c>
       <c r="C161" t="n">
-        <v>0.8140445947647095</v>
+        <v>0.8459592461585999</v>
       </c>
       <c r="D161" t="n">
         <v>1</v>
@@ -3017,10 +3017,10 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>0.4984419941902161</v>
+        <v>0.3713518083095551</v>
       </c>
       <c r="C162" t="n">
-        <v>0.5015580058097839</v>
+        <v>0.6286481618881226</v>
       </c>
       <c r="D162" t="n">
         <v>1</v>
@@ -3033,10 +3033,10 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0.3110484778881073</v>
+        <v>0.04834119975566864</v>
       </c>
       <c r="C163" t="n">
-        <v>0.6889514923095703</v>
+        <v>0.9516587853431702</v>
       </c>
       <c r="D163" t="n">
         <v>1</v>
@@ -3049,10 +3049,10 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>0.1131000146269798</v>
+        <v>0.01562617346644402</v>
       </c>
       <c r="C164" t="n">
-        <v>0.8868999481201172</v>
+        <v>0.9843738079071045</v>
       </c>
       <c r="D164" t="n">
         <v>1</v>
@@ -3065,10 +3065,10 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>0.8239982724189758</v>
+        <v>0.5253920555114746</v>
       </c>
       <c r="C165" t="n">
-        <v>0.176001712679863</v>
+        <v>0.474607914686203</v>
       </c>
       <c r="D165" t="n">
         <v>0</v>
@@ -3081,10 +3081,10 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>0.2275820374488831</v>
+        <v>0.03890570998191833</v>
       </c>
       <c r="C166" t="n">
-        <v>0.7724180221557617</v>
+        <v>0.9610942602157593</v>
       </c>
       <c r="D166" t="n">
         <v>1</v>
@@ -3097,10 +3097,10 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>0.1302378475666046</v>
+        <v>0.02994992397725582</v>
       </c>
       <c r="C167" t="n">
-        <v>0.8697621822357178</v>
+        <v>0.9700500965118408</v>
       </c>
       <c r="D167" t="n">
         <v>1</v>
@@ -3113,10 +3113,10 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>0.3528517484664917</v>
+        <v>0.2133366316556931</v>
       </c>
       <c r="C168" t="n">
-        <v>0.6471482515335083</v>
+        <v>0.7866634130477905</v>
       </c>
       <c r="D168" t="n">
         <v>0</v>
@@ -3129,10 +3129,10 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>0.4527674615383148</v>
+        <v>0.2598186731338501</v>
       </c>
       <c r="C169" t="n">
-        <v>0.5472325682640076</v>
+        <v>0.7401813268661499</v>
       </c>
       <c r="D169" t="n">
         <v>0</v>
@@ -3145,10 +3145,10 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>0.2253702282905579</v>
+        <v>0.03001142106950283</v>
       </c>
       <c r="C170" t="n">
-        <v>0.7746297121047974</v>
+        <v>0.9699885845184326</v>
       </c>
       <c r="D170" t="n">
         <v>1</v>
@@ -3161,10 +3161,10 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>0.7240092754364014</v>
+        <v>0.4254123568534851</v>
       </c>
       <c r="C171" t="n">
-        <v>0.2759907245635986</v>
+        <v>0.5745876431465149</v>
       </c>
       <c r="D171" t="n">
         <v>0</v>
